--- a/data/trans_bre/P68-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P68-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.1921661098379915</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.04726309436096318</v>
+        <v>0.04726309436096319</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-21.73730867509974</v>
+        <v>-21.58405810290351</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.492098838280771</v>
+        <v>-6.74883764693578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.55786573506862</v>
+        <v>-13.03350107502728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.031039345376229</v>
+        <v>-8.626144614142547</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5624908496139532</v>
+        <v>-0.5598407904865</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.204536047123786</v>
+        <v>-0.2039820839570335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3972034656824421</v>
+        <v>-0.4078844190935672</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2329716855520402</v>
+        <v>-0.2265304132536091</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.260193528489693</v>
+        <v>-4.291985632994351</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.46445091615697</v>
+        <v>10.14268859919509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.222166442281655</v>
+        <v>1.615123207371693</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.84671735080733</v>
+        <v>12.02241070723279</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.137336023274272</v>
+        <v>-0.1396780664762662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4094478325337927</v>
+        <v>0.4092264675410843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08754030552203673</v>
+        <v>0.06010276908017161</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4458128269373633</v>
+        <v>0.4265943305584994</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.50694391789618</v>
+        <v>-9.792234360748322</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.315735336647226</v>
+        <v>-7.105578366466949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.21407625432088</v>
+        <v>-12.44743454676698</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.268809668584898</v>
+        <v>-1.820379124618375</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3555414548584909</v>
+        <v>-0.3372090644108152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2411991108280525</v>
+        <v>-0.2694148124019329</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4146687031569571</v>
+        <v>-0.4039828421980776</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08354400575965945</v>
+        <v>-0.06294727108720309</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.912470718729525</v>
+        <v>1.897350590475616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.565235483975758</v>
+        <v>7.301069543983277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.320700616431451</v>
+        <v>1.488523903732111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.42222974049505</v>
+        <v>10.88659447046939</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08614418656291278</v>
+        <v>0.08648746982221603</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3653491725323802</v>
+        <v>0.3492356442655555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05480975017031573</v>
+        <v>0.05868274726482814</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4569710889978277</v>
+        <v>0.4842608563386089</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.41246822813836</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.784446624752386</v>
+        <v>3.784446624752388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04684618601504203</v>
@@ -849,7 +849,7 @@
         <v>-0.1762435162634376</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2430975425932761</v>
+        <v>0.2430975425932762</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.307097196846732</v>
+        <v>-4.121803672928151</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.77688016418158</v>
+        <v>-14.10728851021798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.06394264095907</v>
+        <v>-8.794515463791758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4044881722384689</v>
+        <v>-0.5564929481017166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1867759493870737</v>
+        <v>-0.186750565542491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5514292698892796</v>
+        <v>-0.5181879106127366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4195484548160935</v>
+        <v>-0.4096934658663893</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02483588282297945</v>
+        <v>-0.0342674251010674</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.590678876113733</v>
+        <v>6.386194662680135</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.583273905944168</v>
+        <v>-1.582120825802418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.436112394949455</v>
+        <v>2.680115394139081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.994661043795505</v>
+        <v>8.007383361088479</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3401945882410184</v>
+        <v>0.3265243680572391</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1135112295066348</v>
+        <v>-0.06894340602252</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.135059396985514</v>
+        <v>0.1560505861031972</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6117316502057951</v>
+        <v>0.5926115900100426</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.298890681712749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.062390435898022</v>
+        <v>1.062390435898025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1176363680644374</v>
@@ -949,7 +949,7 @@
         <v>-0.01220246114060433</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06335591217918385</v>
+        <v>0.06335591217918403</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.825452333506316</v>
+        <v>-10.45704899684003</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.671133017901752</v>
+        <v>-3.303058094467668</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.018060929717979</v>
+        <v>-8.604481583411168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.391378456946221</v>
+        <v>-3.655020230786494</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3990157990118726</v>
+        <v>-0.4143993752348906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1411456814943737</v>
+        <v>-0.1709009649145153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3226076892875836</v>
+        <v>-0.3122090265909819</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1885295854321217</v>
+        <v>-0.1893759798815383</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.504087898188981</v>
+        <v>5.10901878361372</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.12229821017348</v>
+        <v>12.19525731164376</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.456463322814693</v>
+        <v>8.798696403295576</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.187057749414795</v>
+        <v>5.794737965147841</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2919304538637971</v>
+        <v>0.2608476162041326</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8504068539330972</v>
+        <v>0.9269943911895259</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.402408295976572</v>
+        <v>0.4292851409324074</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4264890628756428</v>
+        <v>0.3948129392777676</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.699726426260447</v>
+        <v>-6.825978714090608</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.181488167124336</v>
+        <v>-4.617953687156167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.545292728118243</v>
+        <v>-6.799977422642782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01110623821193765</v>
+        <v>0.03098921167474386</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2537374099659911</v>
+        <v>-0.2579696384314921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1704842745455634</v>
+        <v>-0.1805440405149279</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2870210585865712</v>
+        <v>-0.2562919751631432</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.003065882217092444</v>
+        <v>0.0001403456814154823</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04414440114851406</v>
+        <v>-0.01747381004441752</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.139026106637619</v>
+        <v>2.790951068416916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5003983914054433</v>
+        <v>-0.1777090579621194</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.71599658950799</v>
+        <v>5.657723954560597</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.0005793457388040481</v>
+        <v>-0.0009223561378559446</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1405662663636244</v>
+        <v>0.1240941524936075</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.02115313777897225</v>
+        <v>-0.002218529218776461</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3080126690540993</v>
+        <v>0.3003411558021194</v>
       </c>
     </row>
     <row r="19">
